--- a/bko1 demographics.xlsx
+++ b/bko1 demographics.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elisabeth/Desktop/UMASS/BKonline data/BK-Online-Replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DB5BEC-89A0-CE44-A9EC-5E08C040AFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2621CB-5C8D-AE46-997A-0016E476B77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{F8DBF2FD-68AA-8A49-AF6A-4898BE5B14E5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{F8DBF2FD-68AA-8A49-AF6A-4898BE5B14E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="ex 1 replication participants" sheetId="1" r:id="rId1"/>
-    <sheet name="ex 2 bklg" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="ex 3 confound" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="ex 1 replication participants" sheetId="1" r:id="rId2"/>
+    <sheet name="ex 2 bklg" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="ex 3 confound" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,30 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="171">
   <si>
     <t>ID</t>
   </si>
@@ -574,18 +553,6 @@
   </si>
   <si>
     <t>Asian-white</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Total N</t>
-  </si>
-  <si>
-    <t># Female</t>
-  </si>
-  <si>
-    <t>Average Age</t>
   </si>
 </sst>
 </file>
@@ -672,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -697,16 +664,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,6 +983,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7117145-EAD5-D343-9129-398E65682E44}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B268AFEF-F867-534C-AFCD-90FE344D7276}">
   <dimension ref="A1:N65"/>
   <sheetViews>
@@ -2457,12 +2432,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5043F657-C995-694D-82BB-AC50F7120143}">
-  <dimension ref="A1:AG26"/>
+  <dimension ref="A1:AG86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:AG3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2487,7 +2462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -2503,80 +2478,15 @@
       <c r="E2">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" s="4">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>152</v>
-      </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>146</v>
-      </c>
-      <c r="U2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA2" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
     </row>
     <row r="3" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2594,86 +2504,7 @@
       <c r="E3">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" s="4">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>152</v>
-      </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" t="s">
-        <v>146</v>
-      </c>
-      <c r="U3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3">
-        <v>26</v>
-      </c>
-      <c r="W3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3">
-        <v>25</v>
-      </c>
-      <c r="AA3" cm="1">
-        <f t="array" ref="AA3">SUM(LEN(T:T)-LEN(SUBSTITUTE(T:T,"F","")))</f>
-        <v>21</v>
-      </c>
-      <c r="AB3">
-        <f>AVERAGE(V:V)</f>
-        <v>22.16</v>
-      </c>
-      <c r="AC3" cm="1">
-        <f t="array" ref="AC3">SUM(LEN(U:U)-LEN(SUBSTITUTE(U:U,"White","")))/LEN("White")</f>
-        <v>8</v>
-      </c>
-      <c r="AD3" cm="1">
-        <f t="array" ref="AD3">SUM(LEN(U:U)-LEN(SUBSTITUTE(U:U,"Asian","")))/LEN("Asian")</f>
-        <v>8</v>
-      </c>
-      <c r="AE3">
-        <v>2</v>
-      </c>
-      <c r="AF3" cm="1">
-        <f t="array" ref="AF3">SUM(LEN(U:U)-LEN(SUBSTITUTE(U:U,"Latinx/Hispanic","")))/LEN("Latinx/Hispanic")</f>
-        <v>6</v>
-      </c>
-      <c r="AG3" cm="1">
-        <f t="array" ref="AG3">SUM(LEN(U:U)-LEN(SUBSTITUTE(U:U,"Multiracial","")))/LEN("Multiracial")</f>
-        <v>1</v>
-      </c>
+      <c r="Y3" s="13"/>
     </row>
     <row r="4" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -2691,56 +2522,10 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>152</v>
-      </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" t="s">
-        <v>146</v>
-      </c>
-      <c r="U4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4">
-        <v>21</v>
-      </c>
-      <c r="W4" t="s">
-        <v>39</v>
-      </c>
+      <c r="R4" s="5"/>
       <c r="Y4" s="15"/>
     </row>
-    <row r="5" spans="1:33" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>75</v>
       </c>
@@ -2755,53 +2540,6 @@
       </c>
       <c r="E5">
         <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J5" s="5">
-        <v>8</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>152</v>
-      </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5" t="s">
-        <v>146</v>
-      </c>
-      <c r="U5" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5">
-        <v>20</v>
-      </c>
-      <c r="W5" t="s">
-        <v>39</v>
       </c>
       <c r="Y5" s="13"/>
     </row>
@@ -2821,53 +2559,6 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="5">
-        <v>7</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P6" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>152</v>
-      </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="T6" t="s">
-        <v>146</v>
-      </c>
-      <c r="U6" t="s">
-        <v>66</v>
-      </c>
-      <c r="V6">
-        <v>23</v>
-      </c>
-      <c r="W6" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="7" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -2885,53 +2576,6 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="5">
-        <v>6</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>152</v>
-      </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="T7" t="s">
-        <v>145</v>
-      </c>
-      <c r="U7" t="s">
-        <v>62</v>
-      </c>
-      <c r="V7">
-        <v>19</v>
-      </c>
-      <c r="W7" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="8" spans="1:33" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -2949,53 +2593,6 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="5">
-        <v>6</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>152</v>
-      </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" t="s">
-        <v>146</v>
-      </c>
-      <c r="U8" t="s">
-        <v>64</v>
-      </c>
-      <c r="V8">
-        <v>22</v>
-      </c>
-      <c r="W8" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="9" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -3013,51 +2610,6 @@
       <c r="E9">
         <v>5</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="4">
-        <v>8</v>
-      </c>
-      <c r="K9" t="s">
-        <v>151</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>152</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="T9" t="s">
-        <v>146</v>
-      </c>
-      <c r="U9" t="s">
-        <v>64</v>
-      </c>
-      <c r="V9">
-        <v>20</v>
-      </c>
-      <c r="W9" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="10" spans="1:33" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -3075,53 +2627,8 @@
       <c r="E10">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J10" s="4">
-        <v>8</v>
-      </c>
-      <c r="K10" t="s">
-        <v>151</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>152</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T10" t="s">
-        <v>146</v>
-      </c>
-      <c r="U10" t="s">
-        <v>64</v>
-      </c>
-      <c r="V10">
-        <v>23</v>
-      </c>
-      <c r="W10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>121</v>
       </c>
@@ -3137,53 +2644,8 @@
       <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="4">
-        <v>8</v>
-      </c>
-      <c r="K11" t="s">
-        <v>151</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P11" s="5">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T11" t="s">
-        <v>146</v>
-      </c>
-      <c r="U11" t="s">
-        <v>63</v>
-      </c>
-      <c r="V11">
-        <v>20</v>
-      </c>
-      <c r="W11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>122</v>
       </c>
@@ -3199,53 +2661,8 @@
       <c r="E12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="4">
-        <v>8</v>
-      </c>
-      <c r="K12" t="s">
-        <v>151</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" s="5">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T12" t="s">
-        <v>146</v>
-      </c>
-      <c r="U12" t="s">
-        <v>63</v>
-      </c>
-      <c r="V12">
-        <v>24</v>
-      </c>
-      <c r="W12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>123</v>
       </c>
@@ -3261,53 +2678,8 @@
       <c r="E13">
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="4">
-        <v>6</v>
-      </c>
-      <c r="K13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="P13" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="T13" t="s">
-        <v>146</v>
-      </c>
-      <c r="U13" t="s">
-        <v>63</v>
-      </c>
-      <c r="V13">
-        <v>24</v>
-      </c>
-      <c r="W13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>124</v>
       </c>
@@ -3323,53 +2695,8 @@
       <c r="E14">
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="4">
-        <v>6</v>
-      </c>
-      <c r="K14" t="s">
-        <v>151</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P14" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="T14" t="s">
-        <v>146</v>
-      </c>
-      <c r="U14" t="s">
-        <v>64</v>
-      </c>
-      <c r="V14">
-        <v>23</v>
-      </c>
-      <c r="W14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>125</v>
       </c>
@@ -3385,53 +2712,8 @@
       <c r="E15">
         <v>5</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="4">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>151</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P15" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="T15" t="s">
-        <v>146</v>
-      </c>
-      <c r="U15" t="s">
-        <v>66</v>
-      </c>
-      <c r="V15">
-        <v>23</v>
-      </c>
-      <c r="W15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
@@ -3447,53 +2729,8 @@
       <c r="E16">
         <v>5</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="4">
-        <v>6</v>
-      </c>
-      <c r="K16" t="s">
-        <v>151</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="T16" t="s">
-        <v>145</v>
-      </c>
-      <c r="U16" t="s">
-        <v>63</v>
-      </c>
-      <c r="V16">
-        <v>24</v>
-      </c>
-      <c r="W16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>127</v>
       </c>
@@ -3509,383 +2746,1178 @@
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="G17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>23</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="4">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="4">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="4">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="4">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="4">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="4">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="4">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="4">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="4">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="5">
+        <v>10</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="5">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="4">
+        <v>11</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="4">
+        <v>11</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="4">
+        <v>9</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="4">
+        <v>11</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="4">
+        <v>11</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="4">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="4">
+        <v>9</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="4">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="4">
+        <v>9</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="4">
+        <v>11</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="4">
+        <v>9</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="4">
+        <v>10</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="4">
+        <v>9</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="4">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="4">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="5">
+        <v>8</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="5">
+        <v>7</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D72" s="5">
+        <v>6</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="5">
+        <v>6</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" s="4">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="4">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="4">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="4">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="4">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="4">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" s="4">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="4">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="B82" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" s="4">
         <v>8</v>
       </c>
-      <c r="K17" t="s">
+      <c r="E82" t="s">
         <v>151</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P17" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="T17" t="s">
-        <v>146</v>
-      </c>
-      <c r="U17" t="s">
-        <v>63</v>
-      </c>
-      <c r="V17">
-        <v>22</v>
-      </c>
-      <c r="W17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="68" x14ac:dyDescent="0.2">
-      <c r="G18" s="2" t="s">
+    </row>
+    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="B83" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" s="4">
         <v>8</v>
       </c>
-      <c r="K18" t="s">
+      <c r="E83" t="s">
         <v>151</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="P18" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="T18" t="s">
-        <v>145</v>
-      </c>
-      <c r="U18" t="s">
-        <v>63</v>
-      </c>
-      <c r="V18">
-        <v>23</v>
-      </c>
-      <c r="W18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="G19" s="2" t="s">
+    </row>
+    <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="B84" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="4">
+      <c r="D84" s="4">
         <v>6</v>
       </c>
-      <c r="K19" t="s">
+      <c r="E84" t="s">
         <v>151</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P19" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="T19" t="s">
-        <v>146</v>
-      </c>
-      <c r="U19" t="s">
-        <v>63</v>
-      </c>
-      <c r="V19">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="G20" s="2" t="s">
+    </row>
+    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="B85" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J20" s="4">
+      <c r="D85" s="4">
         <v>6</v>
       </c>
-      <c r="K20" t="s">
+      <c r="E85" t="s">
         <v>151</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="P20" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="T20" t="s">
-        <v>145</v>
-      </c>
-      <c r="U20" t="s">
-        <v>62</v>
-      </c>
-      <c r="V20">
-        <v>18</v>
-      </c>
-      <c r="W20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="G21" s="2" t="s">
+    </row>
+    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="B86" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="4">
         <v>7</v>
       </c>
-      <c r="K21" t="s">
+      <c r="E86" t="s">
         <v>151</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P21" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T21" t="s">
-        <v>146</v>
-      </c>
-      <c r="U21" t="s">
-        <v>64</v>
-      </c>
-      <c r="V21">
-        <v>18</v>
-      </c>
-      <c r="W21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="68" x14ac:dyDescent="0.2">
-      <c r="M22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="P22" s="4">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="T22" t="s">
-        <v>146</v>
-      </c>
-      <c r="U22" t="s">
-        <v>150</v>
-      </c>
-      <c r="V22">
-        <v>22</v>
-      </c>
-      <c r="W22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="M23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P23" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T23" t="s">
-        <v>146</v>
-      </c>
-      <c r="U23" t="s">
-        <v>64</v>
-      </c>
-      <c r="V23">
-        <v>39</v>
-      </c>
-      <c r="W23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="M24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P24" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="T24" t="s">
-        <v>146</v>
-      </c>
-      <c r="U24" t="s">
-        <v>62</v>
-      </c>
-      <c r="V24">
-        <v>19</v>
-      </c>
-      <c r="W24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="M25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P25" s="4">
-        <v>9</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="T25" t="s">
-        <v>146</v>
-      </c>
-      <c r="U25" t="s">
-        <v>64</v>
-      </c>
-      <c r="V25">
-        <v>20</v>
-      </c>
-      <c r="W25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="S26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="T26" t="s">
-        <v>146</v>
-      </c>
-      <c r="U26" t="s">
-        <v>64</v>
-      </c>
-      <c r="V26">
-        <v>21</v>
-      </c>
-      <c r="W26" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3896,7 +3928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0185D82B-6DDF-694B-A426-3FA608176960}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3908,7 +3940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86DABB0-0D7F-8244-94DF-0C8A59DBFD83}">
   <dimension ref="A1:E37"/>
   <sheetViews>
